--- a/Gruppe_6/ACT/visc_df_exp1.xlsx
+++ b/Gruppe_6/ACT/visc_df_exp1.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.0003386935567827506</v>
+        <v>0.000295581470242086</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0003258642553894645</v>
+        <v>0.0002843852024298857</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0003566545787333509</v>
+        <v>0.0003112562451791662</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.0003592204390120081</v>
+        <v>0.0003134954987416063</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.001468955009531247</v>
+        <v>0.001281972664496926</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.00259408474172243</v>
+        <v>0.002263885351626886</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.005331857659049664</v>
+        <v>0.004653168902750414</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.003946293108574775</v>
+        <v>0.003443971979032789</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.0730778738469556</v>
+        <v>0.06377583795520529</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.06906455995476968</v>
+        <v>0.06027337622530526</v>
       </c>
     </row>
     <row r="12">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.110313941528467</v>
+        <v>0.09627215036186486</v>
       </c>
     </row>
     <row r="13">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.1216844281693736</v>
+        <v>0.1061952950198631</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.1203000597548172</v>
+        <v>0.1049871419766868</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.1235354376225444</v>
+        <v>0.1078106906618627</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.08441536388536243</v>
+        <v>0.07367018612716307</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>0.08076778643352578</v>
+        <v>0.07048690647969308</v>
       </c>
     </row>
   </sheetData>
